--- a/config/trading_config/trading_order_config.xlsx
+++ b/config/trading_config/trading_order_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\config\trading_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5DA9FB-BDB4-4310-92CA-3D39036AE8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A619C2-E8B3-4869-B71A-4DDF5C5FA541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="345" windowWidth="10800" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info_sheet" sheetId="1" r:id="rId1"/>
@@ -411,17 +411,17 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.25" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="1" max="2" width="24.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,13 +438,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>-600000</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
@@ -453,12 +453,12 @@
         <v>0.61805555555555602</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>3800000</v>
+        <v>6000000</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -480,28 +480,35 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>300445</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>601519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>301122</v>
       </c>
     </row>
   </sheetData>
@@ -516,42 +523,42 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>

--- a/config/trading_config/trading_order_config.xlsx
+++ b/config/trading_config/trading_order_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\config\trading_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A619C2-E8B3-4869-B71A-4DDF5C5FA541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5DA9FB-BDB4-4310-92CA-3D39036AE8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4455" yWindow="345" windowWidth="10800" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info_sheet" sheetId="1" r:id="rId1"/>
@@ -411,17 +411,17 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="24.26953125" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="4" max="4" width="22.36328125" customWidth="1"/>
+    <col min="1" max="2" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,13 +438,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
-        <v>-600000</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
@@ -453,12 +453,12 @@
         <v>0.61805555555555602</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>6000000</v>
+        <v>3800000</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -480,35 +480,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>300445</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>601519</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>301122</v>
       </c>
     </row>
   </sheetData>
@@ -523,42 +516,42 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>14</v>
       </c>

--- a/config/trading_config/trading_order_config.xlsx
+++ b/config/trading_config/trading_order_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\config\trading_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5DA9FB-BDB4-4310-92CA-3D39036AE8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084DB711-26C8-4BD8-9827-F5206BB5A5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="345" windowWidth="10800" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info_sheet" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>产品名称</t>
   </si>
@@ -63,24 +63,6 @@
   <si>
     <t xml:space="preserve"> 09:30:00,10:30:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>510880.SH</t>
-  </si>
-  <si>
-    <t>513500.SH</t>
-  </si>
-  <si>
-    <t>513080.SH</t>
-  </si>
-  <si>
-    <t>513310.SH</t>
-  </si>
-  <si>
-    <t>513290.SH</t>
-  </si>
-  <si>
-    <t>513100.SH</t>
   </si>
 </sst>
 </file>
@@ -411,7 +393,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -444,7 +426,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>5970000</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
@@ -458,10 +440,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>3800000</v>
+        <v>7730226</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
@@ -480,9 +462,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -494,16 +478,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>300445</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>601519</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -513,10 +487,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -526,36 +500,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
